--- a/report4/Q3/test.xlsx
+++ b/report4/Q3/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/557d4fc3d084a5d3/On_going_HW/TUT_Software_Enshuu2/report4/Q3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC10481C715B6A985ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6CCA225-19DA-42C3-B892-105364B118FA}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_F25DC773A252ABDACC10481C715B6A985ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61B3013F-E288-41DA-BA8B-C0EE7A567E79}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13146,70 +13146,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:prstDash val="lgDash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.17584951881014874"/>
-                  <c:y val="-2.3564814814814816E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'21data'!$C$2:$C$22</c:f>
@@ -13217,67 +13153,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-8.6538699999999995</c:v>
+                  <c:v>-10.569599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.6513099999999996</c:v>
+                  <c:v>-7.3041700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.4657600000000004</c:v>
+                  <c:v>-6.8891299999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.00868</c:v>
+                  <c:v>-6.0324099999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.9430300000000003</c:v>
+                  <c:v>-4.4786400000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.3878599999999999</c:v>
+                  <c:v>-5.0482500000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.9987199999999996</c:v>
+                  <c:v>-2.4047000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.48461</c:v>
+                  <c:v>-4.7830899999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.9821499999999999</c:v>
+                  <c:v>-2.2864499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.44913399999999998</c:v>
+                  <c:v>-2.0419700000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.4518</c:v>
+                  <c:v>-1.4796499999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4537899999999999</c:v>
+                  <c:v>2.0712799999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0586099999999998</c:v>
+                  <c:v>2.80748</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.77254299999999998</c:v>
+                  <c:v>1.94173</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.01485</c:v>
+                  <c:v>5.7300199999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5753899999999996</c:v>
+                  <c:v>6.2326499999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9294900000000004</c:v>
+                  <c:v>5.1764000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.5264800000000003</c:v>
+                  <c:v>6.8818000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.5327699999999993</c:v>
+                  <c:v>7.4238999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.2317099999999996</c:v>
+                  <c:v>10.6957</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.6908499999999993</c:v>
+                  <c:v>9.9256100000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13289,67 +13225,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-13.0099</c:v>
+                  <c:v>-13.569599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-10.9428</c:v>
+                  <c:v>-9.8041699999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.510999999999999</c:v>
+                  <c:v>-8.8891299999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.8210599999999992</c:v>
+                  <c:v>-7.5324099999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.5901800000000001</c:v>
+                  <c:v>-5.4786400000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.5465400000000002</c:v>
+                  <c:v>-5.5482500000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.8241300000000003</c:v>
+                  <c:v>-2.4047000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.1844800000000002</c:v>
+                  <c:v>-4.2830899999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.2069100000000001</c:v>
+                  <c:v>-1.2864500000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69021699999999997</c:v>
+                  <c:v>-0.54196900000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70472500000000005</c:v>
+                  <c:v>0.52035500000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5671900000000001</c:v>
+                  <c:v>4.5712799999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4404399999999997</c:v>
+                  <c:v>5.80748</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8251799999999996</c:v>
+                  <c:v>5.4417299999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.4429800000000004</c:v>
+                  <c:v>9.7300199999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6374999999999993</c:v>
+                  <c:v>10.732699999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.3254</c:v>
+                  <c:v>10.176399999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.8908</c:v>
+                  <c:v>12.3818</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.4131</c:v>
+                  <c:v>13.4239</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.0253</c:v>
+                  <c:v>17.195699999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.967599999999999</c:v>
+                  <c:v>16.925599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13358,175 +13294,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-25F8-4C33-9B2C-BD2B85B7170B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Origin</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'21data'!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'21data'!$B$2:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>-13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-11.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-8.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-25F8-4C33-9B2C-BD2B85B7170B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13540,6 +13307,193 @@
         </c:dLbls>
         <c:axId val="1233763344"/>
         <c:axId val="1233764784"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Origin</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'21data'!$A$2:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>-10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'21data'!$B$2:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>-13</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-11.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-8.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>12.5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>15.5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>17</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-25F8-4C33-9B2C-BD2B85B7170B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1233763344"/>
@@ -13686,7 +13640,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -13719,7 +13673,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -16210,6 +16164,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -30506,8 +30464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DE59AC-2084-4976-8EBD-D23530B11B20}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30534,10 +30492,10 @@
         <v>-13</v>
       </c>
       <c r="C2">
-        <v>-8.6538699999999995</v>
+        <v>-10.569599999999999</v>
       </c>
       <c r="D2">
-        <v>-13.0099</v>
+        <v>-13.569599999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -30548,10 +30506,10 @@
         <v>-11.5</v>
       </c>
       <c r="C3">
-        <v>-7.6513099999999996</v>
+        <v>-7.3041700000000001</v>
       </c>
       <c r="D3">
-        <v>-10.9428</v>
+        <v>-9.8041699999999992</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -30562,10 +30520,10 @@
         <v>-10</v>
       </c>
       <c r="C4">
-        <v>-7.4657600000000004</v>
+        <v>-6.8891299999999998</v>
       </c>
       <c r="D4">
-        <v>-10.510999999999999</v>
+        <v>-8.8891299999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -30576,10 +30534,10 @@
         <v>-8.5</v>
       </c>
       <c r="C5">
-        <v>-7.00868</v>
+        <v>-6.0324099999999996</v>
       </c>
       <c r="D5">
-        <v>-8.8210599999999992</v>
+        <v>-7.5324099999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -30590,10 +30548,10 @@
         <v>-7</v>
       </c>
       <c r="C6">
-        <v>-4.9430300000000003</v>
+        <v>-4.4786400000000004</v>
       </c>
       <c r="D6">
-        <v>-7.5901800000000001</v>
+        <v>-5.4786400000000004</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -30604,10 +30562,10 @@
         <v>-5.5</v>
       </c>
       <c r="C7">
-        <v>-5.3878599999999999</v>
+        <v>-5.0482500000000003</v>
       </c>
       <c r="D7">
-        <v>-5.5465400000000002</v>
+        <v>-5.5482500000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -30618,10 +30576,10 @@
         <v>-4</v>
       </c>
       <c r="C8">
-        <v>-4.9987199999999996</v>
+        <v>-2.4047000000000001</v>
       </c>
       <c r="D8">
-        <v>-4.8241300000000003</v>
+        <v>-2.4047000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -30632,10 +30590,10 @@
         <v>-2.5</v>
       </c>
       <c r="C9">
-        <v>-2.48461</v>
+        <v>-4.7830899999999996</v>
       </c>
       <c r="D9">
-        <v>-2.1844800000000002</v>
+        <v>-4.2830899999999996</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -30646,10 +30604,10 @@
         <v>-1</v>
       </c>
       <c r="C10">
-        <v>-2.9821499999999999</v>
+        <v>-2.2864499999999999</v>
       </c>
       <c r="D10">
-        <v>-3.2069100000000001</v>
+        <v>-1.2864500000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -30660,10 +30618,10 @@
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>0.44913399999999998</v>
+        <v>-2.0419700000000001</v>
       </c>
       <c r="D11">
-        <v>0.69021699999999997</v>
+        <v>-0.54196900000000003</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -30674,10 +30632,10 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>-2.4518</v>
+        <v>-1.4796499999999999</v>
       </c>
       <c r="D12">
-        <v>0.70472500000000005</v>
+        <v>0.52035500000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -30688,10 +30646,10 @@
         <v>3.5</v>
       </c>
       <c r="C13">
-        <v>1.4537899999999999</v>
+        <v>2.0712799999999998</v>
       </c>
       <c r="D13">
-        <v>3.5671900000000001</v>
+        <v>4.5712799999999998</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -30702,10 +30660,10 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>2.0586099999999998</v>
+        <v>2.80748</v>
       </c>
       <c r="D14">
-        <v>4.4404399999999997</v>
+        <v>5.80748</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -30716,10 +30674,10 @@
         <v>6.5</v>
       </c>
       <c r="C15">
-        <v>0.77254299999999998</v>
+        <v>1.94173</v>
       </c>
       <c r="D15">
-        <v>5.8251799999999996</v>
+        <v>5.4417299999999997</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -30730,10 +30688,10 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>5.01485</v>
+        <v>5.7300199999999997</v>
       </c>
       <c r="D16">
-        <v>7.4429800000000004</v>
+        <v>9.7300199999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -30744,10 +30702,10 @@
         <v>9.5</v>
       </c>
       <c r="C17">
-        <v>4.5753899999999996</v>
+        <v>6.2326499999999996</v>
       </c>
       <c r="D17">
-        <v>9.6374999999999993</v>
+        <v>10.732699999999999</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -30758,10 +30716,10 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>5.9294900000000004</v>
+        <v>5.1764000000000001</v>
       </c>
       <c r="D18">
-        <v>11.3254</v>
+        <v>10.176399999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -30772,10 +30730,10 @@
         <v>12.5</v>
       </c>
       <c r="C19">
-        <v>6.5264800000000003</v>
+        <v>6.8818000000000001</v>
       </c>
       <c r="D19">
-        <v>10.8908</v>
+        <v>12.3818</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -30786,10 +30744,10 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>8.5327699999999993</v>
+        <v>7.4238999999999997</v>
       </c>
       <c r="D20">
-        <v>15.4131</v>
+        <v>13.4239</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -30800,10 +30758,10 @@
         <v>15.5</v>
       </c>
       <c r="C21">
-        <v>9.2317099999999996</v>
+        <v>10.6957</v>
       </c>
       <c r="D21">
-        <v>15.0253</v>
+        <v>17.195699999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -30814,10 +30772,10 @@
         <v>17</v>
       </c>
       <c r="C22">
-        <v>9.6908499999999993</v>
+        <v>9.9256100000000007</v>
       </c>
       <c r="D22">
-        <v>14.967599999999999</v>
+        <v>16.925599999999999</v>
       </c>
     </row>
   </sheetData>
